--- a/Project/Phase 2/Sprint 1/Burndown chart.xlsx
+++ b/Project/Phase 2/Sprint 1/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4A3CE5-386E-4B5D-975A-E1E961954A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7228F2-15B0-4197-A1D4-DDEF90AE514D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,7 +929,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
@@ -941,13 +941,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,22 +1102,22 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>37</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2433,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2633,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="10">
         <v>2</v>
@@ -2645,13 +2645,13 @@
         <v>2</v>
       </c>
       <c r="Q6" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R6" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S6" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="M9" s="19">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" s="19">
         <f t="shared" si="0"/>
@@ -2774,15 +2774,15 @@
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S9" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T9" s="27"/>
     </row>
@@ -2829,19 +2829,19 @@
       </c>
       <c r="M10" s="18">
         <f>L10-SUM(M6:M8)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N10" s="20">
         <f>M10-SUM(N6:N8)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O10" s="18">
         <f>N10-SUM(O6:O8)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P10" s="20">
         <f>O10-SUM(P6:P8)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="20">
         <f>P10-SUM(Q6:Q8)</f>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="R10" s="20">
         <f>Q10-SUM(R6:R8)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S10" s="21">
         <f>R10-SUM(S6:S8)</f>
